--- a/data/bog/rotation.xlsx
+++ b/data/bog/rotation.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,10 +83,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,14 +114,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -128,9 +159,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,16 +182,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,14 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -182,10 +205,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,31 +220,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,49 +236,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,31 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,97 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,6 +465,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,45 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,10 +1003,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1044,15 +1044,15 @@
         <v>Cleveland</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1" t="shared" ref="C2:C34" si="1">OFFSET(C2,3,0)</f>
+        <f ca="1" t="shared" ref="C2:C37" si="1">OFFSET(C2,3,0)</f>
         <v>Richmond</v>
       </c>
       <c r="D2" t="str">
-        <f ca="1" t="shared" ref="D2:D33" si="2">OFFSET(D2,3,0)</f>
+        <f ca="1" t="shared" ref="D2:D37" si="2">OFFSET(D2,3,0)</f>
         <v>Atlanta</v>
       </c>
       <c r="E2" t="str">
-        <f ca="1" t="shared" ref="E2:E36" si="3">OFFSET(E2,3,0)</f>
+        <f ca="1" t="shared" ref="E2:E37" si="3">OFFSET(E2,3,0)</f>
         <v>San Francisco</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
         <v>2015</v>
       </c>
       <c r="B29" t="str">
-        <f ca="1" t="shared" ref="B29:B35" si="4">OFFSET(B29,2,0)</f>
+        <f ca="1" t="shared" ref="B29:B37" si="4">OFFSET(B29,2,0)</f>
         <v>Chicago</v>
       </c>
       <c r="C29" t="str">
@@ -1720,7 +1720,7 @@
         <v>Philadelphia</v>
       </c>
       <c r="D34" t="str">
-        <f ca="1">OFFSET(D34,3,0)</f>
+        <f ca="1" t="shared" si="2"/>
         <v>Dallas</v>
       </c>
       <c r="E34" t="str">
@@ -1737,11 +1737,11 @@
         <v>Chicago</v>
       </c>
       <c r="C35" t="str">
-        <f ca="1">OFFSET(C35,3,0)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>Richmond</v>
       </c>
       <c r="D35" t="str">
-        <f ca="1">OFFSET(D35,3,0)</f>
+        <f ca="1" t="shared" si="2"/>
         <v>Atlanta</v>
       </c>
       <c r="E35" t="str">
@@ -1754,15 +1754,15 @@
         <v>2022</v>
       </c>
       <c r="B36" t="str">
-        <f ca="1">OFFSET(B36,2,0)</f>
+        <f ca="1" t="shared" si="4"/>
         <v>Cleveland</v>
       </c>
       <c r="C36" t="str">
-        <f ca="1">OFFSET(C36,3,0)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>Boston</v>
       </c>
       <c r="D36" t="str">
-        <f ca="1">OFFSET(D36,3,0)</f>
+        <f ca="1" t="shared" si="2"/>
         <v>St. Louis</v>
       </c>
       <c r="E36" t="str">
@@ -1775,7 +1775,7 @@
         <v>2023</v>
       </c>
       <c r="B37" t="str">
-        <f ca="1">OFFSET(B37,2,0)</f>
+        <f ca="1" t="shared" si="4"/>
         <v>Chicago</v>
       </c>
       <c r="C37" t="str">
@@ -1783,11 +1783,11 @@
         <v>Philadelphia</v>
       </c>
       <c r="D37" t="str">
-        <f ca="1">OFFSET(D37,3,0)</f>
+        <f ca="1" t="shared" si="2"/>
         <v>Dallas</v>
       </c>
       <c r="E37" t="str">
-        <f ca="1">OFFSET(E37,3,0)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>Minneapolis</v>
       </c>
     </row>
@@ -1857,6 +1857,531 @@
       </c>
       <c r="E41" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B42" t="str">
+        <f ca="1">OFFSET(B42,-2,0)</f>
+        <v>Cleveland</v>
+      </c>
+      <c r="C42" t="str">
+        <f ca="1">OFFSET(C42,-3,0)</f>
+        <v>Boston</v>
+      </c>
+      <c r="D42" t="str">
+        <f ca="1">OFFSET(D42,-3,0)</f>
+        <v>St. Louis</v>
+      </c>
+      <c r="E42" t="str">
+        <f ca="1">OFFSET(E42,-3,0)</f>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B43" t="str">
+        <f ca="1" t="shared" ref="B43:B66" si="5">OFFSET(B43,-2,0)</f>
+        <v>Chicago</v>
+      </c>
+      <c r="C43" t="str">
+        <f ca="1" t="shared" ref="C43:C65" si="6">OFFSET(C43,-3,0)</f>
+        <v>Philadelphia</v>
+      </c>
+      <c r="D43" t="str">
+        <f ca="1" t="shared" ref="D43:D66" si="7">OFFSET(D43,-3,0)</f>
+        <v>Dallas</v>
+      </c>
+      <c r="E43" t="str">
+        <f ca="1" t="shared" ref="E43:E66" si="8">OFFSET(E43,-3,0)</f>
+        <v>Minneapolis</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B44" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C44" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Richmond</v>
+      </c>
+      <c r="D44" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="E44" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B45" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C45" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Boston</v>
+      </c>
+      <c r="D45" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>St. Louis</v>
+      </c>
+      <c r="E45" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B46" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C46" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Philadelphia</v>
+      </c>
+      <c r="D46" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Dallas</v>
+      </c>
+      <c r="E46" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Minneapolis</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B47" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C47" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Richmond</v>
+      </c>
+      <c r="D47" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="E47" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B48" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C48" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Boston</v>
+      </c>
+      <c r="D48" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>St. Louis</v>
+      </c>
+      <c r="E48" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B49" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C49" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Philadelphia</v>
+      </c>
+      <c r="D49" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Dallas</v>
+      </c>
+      <c r="E49" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Minneapolis</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B50" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C50" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Richmond</v>
+      </c>
+      <c r="D50" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="E50" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B51" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C51" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Boston</v>
+      </c>
+      <c r="D51" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>St. Louis</v>
+      </c>
+      <c r="E51" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B52" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C52" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Philadelphia</v>
+      </c>
+      <c r="D52" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Dallas</v>
+      </c>
+      <c r="E52" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Minneapolis</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B53" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C53" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Richmond</v>
+      </c>
+      <c r="D53" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="E53" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B54" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C54" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Boston</v>
+      </c>
+      <c r="D54" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>St. Louis</v>
+      </c>
+      <c r="E54" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B55" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C55" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Philadelphia</v>
+      </c>
+      <c r="D55" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Dallas</v>
+      </c>
+      <c r="E55" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Minneapolis</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B56" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C56" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Richmond</v>
+      </c>
+      <c r="D56" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="E56" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B57" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C57" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Boston</v>
+      </c>
+      <c r="D57" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>St. Louis</v>
+      </c>
+      <c r="E57" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B58" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C58" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Philadelphia</v>
+      </c>
+      <c r="D58" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Dallas</v>
+      </c>
+      <c r="E58" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Minneapolis</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B59" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C59" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Richmond</v>
+      </c>
+      <c r="D59" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="E59" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B60" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C60" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Boston</v>
+      </c>
+      <c r="D60" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>St. Louis</v>
+      </c>
+      <c r="E60" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B61" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C61" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Philadelphia</v>
+      </c>
+      <c r="D61" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Dallas</v>
+      </c>
+      <c r="E61" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Minneapolis</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B62" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C62" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Richmond</v>
+      </c>
+      <c r="D62" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="E62" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B63" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C63" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Boston</v>
+      </c>
+      <c r="D63" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>St. Louis</v>
+      </c>
+      <c r="E63" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B64" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C64" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Philadelphia</v>
+      </c>
+      <c r="D64" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Dallas</v>
+      </c>
+      <c r="E64" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Minneapolis</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>2051</v>
+      </c>
+      <c r="B65" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Chicago</v>
+      </c>
+      <c r="C65" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>Richmond</v>
+      </c>
+      <c r="D65" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>Atlanta</v>
+      </c>
+      <c r="E65" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>2052</v>
+      </c>
+      <c r="B66" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>Cleveland</v>
+      </c>
+      <c r="C66" t="str">
+        <f ca="1">OFFSET(C66,-3,0)</f>
+        <v>Boston</v>
+      </c>
+      <c r="D66" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>St. Louis</v>
+      </c>
+      <c r="E66" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>Kansas City</v>
       </c>
     </row>
   </sheetData>
